--- a/data/TSLA.xlsx
+++ b/data/TSLA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2698"/>
+  <dimension ref="A1:G2715"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62506,6 +62506,397 @@
         <v>11472287</v>
       </c>
     </row>
+    <row r="2699">
+      <c r="A2699" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="B2699" t="n">
+        <v>656.869995</v>
+      </c>
+      <c r="C2699" t="n">
+        <v>703.72998</v>
+      </c>
+      <c r="D2699" t="n">
+        <v>651.01001</v>
+      </c>
+      <c r="E2699" t="n">
+        <v>701.809998</v>
+      </c>
+      <c r="F2699" t="n">
+        <v>701.809998</v>
+      </c>
+      <c r="G2699" t="n">
+        <v>40083300</v>
+      </c>
+    </row>
+    <row r="2700">
+      <c r="A2700" s="2" t="n">
+        <v>44273</v>
+      </c>
+      <c r="B2700" t="n">
+        <v>684.289978</v>
+      </c>
+      <c r="C2700" t="n">
+        <v>689.22998</v>
+      </c>
+      <c r="D2700" t="n">
+        <v>652</v>
+      </c>
+      <c r="E2700" t="n">
+        <v>653.159973</v>
+      </c>
+      <c r="F2700" t="n">
+        <v>653.159973</v>
+      </c>
+      <c r="G2700" t="n">
+        <v>33224800</v>
+      </c>
+    </row>
+    <row r="2701">
+      <c r="A2701" s="2" t="n">
+        <v>44274</v>
+      </c>
+      <c r="B2701" t="n">
+        <v>646.599976</v>
+      </c>
+      <c r="C2701" t="n">
+        <v>657.22998</v>
+      </c>
+      <c r="D2701" t="n">
+        <v>624.619995</v>
+      </c>
+      <c r="E2701" t="n">
+        <v>654.869995</v>
+      </c>
+      <c r="F2701" t="n">
+        <v>654.869995</v>
+      </c>
+      <c r="G2701" t="n">
+        <v>42827400</v>
+      </c>
+    </row>
+    <row r="2702">
+      <c r="A2702" s="2" t="n">
+        <v>44277</v>
+      </c>
+      <c r="B2702" t="n">
+        <v>684.590027</v>
+      </c>
+      <c r="C2702" t="n">
+        <v>699.619995</v>
+      </c>
+      <c r="D2702" t="n">
+        <v>668.75</v>
+      </c>
+      <c r="E2702" t="n">
+        <v>670</v>
+      </c>
+      <c r="F2702" t="n">
+        <v>670</v>
+      </c>
+      <c r="G2702" t="n">
+        <v>39512200</v>
+      </c>
+    </row>
+    <row r="2703">
+      <c r="A2703" s="2" t="n">
+        <v>44278</v>
+      </c>
+      <c r="B2703" t="n">
+        <v>675.77002</v>
+      </c>
+      <c r="C2703" t="n">
+        <v>677.799988</v>
+      </c>
+      <c r="D2703" t="n">
+        <v>657.51001</v>
+      </c>
+      <c r="E2703" t="n">
+        <v>662.159973</v>
+      </c>
+      <c r="F2703" t="n">
+        <v>662.159973</v>
+      </c>
+      <c r="G2703" t="n">
+        <v>30491900</v>
+      </c>
+    </row>
+    <row r="2704">
+      <c r="A2704" s="2" t="n">
+        <v>44279</v>
+      </c>
+      <c r="B2704" t="n">
+        <v>667.909973</v>
+      </c>
+      <c r="C2704" t="n">
+        <v>668.02002</v>
+      </c>
+      <c r="D2704" t="n">
+        <v>630.1099850000001</v>
+      </c>
+      <c r="E2704" t="n">
+        <v>630.27002</v>
+      </c>
+      <c r="F2704" t="n">
+        <v>630.27002</v>
+      </c>
+      <c r="G2704" t="n">
+        <v>33795200</v>
+      </c>
+    </row>
+    <row r="2705">
+      <c r="A2705" s="2" t="n">
+        <v>44280</v>
+      </c>
+      <c r="B2705" t="n">
+        <v>613</v>
+      </c>
+      <c r="C2705" t="n">
+        <v>645.5</v>
+      </c>
+      <c r="D2705" t="n">
+        <v>609.5</v>
+      </c>
+      <c r="E2705" t="n">
+        <v>640.3900149999999</v>
+      </c>
+      <c r="F2705" t="n">
+        <v>640.3900149999999</v>
+      </c>
+      <c r="G2705" t="n">
+        <v>39224900</v>
+      </c>
+    </row>
+    <row r="2706">
+      <c r="A2706" s="2" t="n">
+        <v>44281</v>
+      </c>
+      <c r="B2706" t="n">
+        <v>641.869995</v>
+      </c>
+      <c r="C2706" t="n">
+        <v>643.820007</v>
+      </c>
+      <c r="D2706" t="n">
+        <v>599.8900149999999</v>
+      </c>
+      <c r="E2706" t="n">
+        <v>618.710022</v>
+      </c>
+      <c r="F2706" t="n">
+        <v>618.710022</v>
+      </c>
+      <c r="G2706" t="n">
+        <v>33778400</v>
+      </c>
+    </row>
+    <row r="2707">
+      <c r="A2707" s="2" t="n">
+        <v>44284</v>
+      </c>
+      <c r="B2707" t="n">
+        <v>615.6400149999999</v>
+      </c>
+      <c r="C2707" t="n">
+        <v>616.47998</v>
+      </c>
+      <c r="D2707" t="n">
+        <v>596.02002</v>
+      </c>
+      <c r="E2707" t="n">
+        <v>611.289978</v>
+      </c>
+      <c r="F2707" t="n">
+        <v>611.289978</v>
+      </c>
+      <c r="G2707" t="n">
+        <v>28637000</v>
+      </c>
+    </row>
+    <row r="2708">
+      <c r="A2708" s="2" t="n">
+        <v>44285</v>
+      </c>
+      <c r="B2708" t="n">
+        <v>601.75</v>
+      </c>
+      <c r="C2708" t="n">
+        <v>637.659973</v>
+      </c>
+      <c r="D2708" t="n">
+        <v>591.01001</v>
+      </c>
+      <c r="E2708" t="n">
+        <v>635.619995</v>
+      </c>
+      <c r="F2708" t="n">
+        <v>635.619995</v>
+      </c>
+      <c r="G2708" t="n">
+        <v>39432400</v>
+      </c>
+    </row>
+    <row r="2709">
+      <c r="A2709" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="B2709" t="n">
+        <v>646.619995</v>
+      </c>
+      <c r="C2709" t="n">
+        <v>672</v>
+      </c>
+      <c r="D2709" t="n">
+        <v>641.1099850000001</v>
+      </c>
+      <c r="E2709" t="n">
+        <v>667.929993</v>
+      </c>
+      <c r="F2709" t="n">
+        <v>667.929993</v>
+      </c>
+      <c r="G2709" t="n">
+        <v>33337300</v>
+      </c>
+    </row>
+    <row r="2710">
+      <c r="A2710" s="2" t="n">
+        <v>44287</v>
+      </c>
+      <c r="B2710" t="n">
+        <v>688.369995</v>
+      </c>
+      <c r="C2710" t="n">
+        <v>692.419983</v>
+      </c>
+      <c r="D2710" t="n">
+        <v>659.419983</v>
+      </c>
+      <c r="E2710" t="n">
+        <v>661.75</v>
+      </c>
+      <c r="F2710" t="n">
+        <v>661.75</v>
+      </c>
+      <c r="G2710" t="n">
+        <v>35206300</v>
+      </c>
+    </row>
+    <row r="2711">
+      <c r="A2711" s="2" t="n">
+        <v>44291</v>
+      </c>
+      <c r="B2711" t="n">
+        <v>707.710022</v>
+      </c>
+      <c r="C2711" t="n">
+        <v>708.159973</v>
+      </c>
+      <c r="D2711" t="n">
+        <v>684.700012</v>
+      </c>
+      <c r="E2711" t="n">
+        <v>691.049988</v>
+      </c>
+      <c r="F2711" t="n">
+        <v>691.049988</v>
+      </c>
+      <c r="G2711" t="n">
+        <v>41842800</v>
+      </c>
+    </row>
+    <row r="2712">
+      <c r="A2712" s="2" t="n">
+        <v>44292</v>
+      </c>
+      <c r="B2712" t="n">
+        <v>690.299988</v>
+      </c>
+      <c r="C2712" t="n">
+        <v>696.549988</v>
+      </c>
+      <c r="D2712" t="n">
+        <v>681.369995</v>
+      </c>
+      <c r="E2712" t="n">
+        <v>691.619995</v>
+      </c>
+      <c r="F2712" t="n">
+        <v>691.619995</v>
+      </c>
+      <c r="G2712" t="n">
+        <v>28271800</v>
+      </c>
+    </row>
+    <row r="2713">
+      <c r="A2713" s="2" t="n">
+        <v>44293</v>
+      </c>
+      <c r="B2713" t="n">
+        <v>687</v>
+      </c>
+      <c r="C2713" t="n">
+        <v>691.380005</v>
+      </c>
+      <c r="D2713" t="n">
+        <v>667.840027</v>
+      </c>
+      <c r="E2713" t="n">
+        <v>670.969971</v>
+      </c>
+      <c r="F2713" t="n">
+        <v>670.969971</v>
+      </c>
+      <c r="G2713" t="n">
+        <v>26309400</v>
+      </c>
+    </row>
+    <row r="2714">
+      <c r="A2714" s="2" t="n">
+        <v>44294</v>
+      </c>
+      <c r="B2714" t="n">
+        <v>677.380005</v>
+      </c>
+      <c r="C2714" t="n">
+        <v>689.549988</v>
+      </c>
+      <c r="D2714" t="n">
+        <v>671.650024</v>
+      </c>
+      <c r="E2714" t="n">
+        <v>683.799988</v>
+      </c>
+      <c r="F2714" t="n">
+        <v>683.799988</v>
+      </c>
+      <c r="G2714" t="n">
+        <v>23842600</v>
+      </c>
+    </row>
+    <row r="2715">
+      <c r="A2715" s="2" t="n">
+        <v>44295</v>
+      </c>
+      <c r="B2715" t="n">
+        <v>677.77002</v>
+      </c>
+      <c r="C2715" t="n">
+        <v>680.969727</v>
+      </c>
+      <c r="D2715" t="n">
+        <v>671.090027</v>
+      </c>
+      <c r="E2715" t="n">
+        <v>671.830017</v>
+      </c>
+      <c r="F2715" t="n">
+        <v>671.830017</v>
+      </c>
+      <c r="G2715" t="n">
+        <v>9120158</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
